--- a/DB.xlsx
+++ b/DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lojaototalcombr-my.sharepoint.com/personal/kaua_reis_lojaototal_com_br/Documents/Tecnopampa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{DCB03B9E-DED0-4A0A-A9E2-54F5D401648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBFCA46E-9470-424A-A8F8-D3B1B9C1AAB7}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{DCB03B9E-DED0-4A0A-A9E2-54F5D401648D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE8DF14C-3C08-0648-A68C-B12BE0038EFA}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-3100" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1146,10 +1146,10 @@
         <v>38</v>
       </c>
       <c r="E5" s="13">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13">
         <v>80</v>
-      </c>
-      <c r="F5" s="13">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
